--- a/data/case1/11/Q1_13.xlsx
+++ b/data/case1/11/Q1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.083939471173032132</v>
+        <v>0.12839389494417475</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999674182902</v>
+        <v>-0.005999999985487392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999751412219</v>
+        <v>-0.0039999999876538794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999531370491</v>
+        <v>-0.007999999977130301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999795347065</v>
+        <v>-0.0029999999878889128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999842426064</v>
+        <v>0.015766216628183116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999408830753</v>
+        <v>-0.0099999999685778107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999397573092</v>
+        <v>-0.0099999999684730057</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999818836045</v>
+        <v>0.035945621430697905</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999813702374</v>
+        <v>-0.0019999999863085094</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999759837692</v>
+        <v>-0.0011870766249826303</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999733051901</v>
+        <v>-0.0034999999824019135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999736760046</v>
+        <v>-0.0034999999809279814</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999498596708</v>
+        <v>-0.0079999999698605606</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998809785495</v>
+        <v>-0.00099999998615984964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.022009864109182153</v>
+        <v>-0.0019999999835360605</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.001999999983056</v>
+        <v>-0.0019999999831430415</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999721125334</v>
+        <v>-0.0039999999783146833</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999779882778</v>
+        <v>-0.0039999999902109451</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999768713934</v>
+        <v>0.015920646946007366</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999767239558</v>
+        <v>-0.0039999999903495009</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.00028272624493563825</v>
+        <v>-0.0039999999902580186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999680867546</v>
+        <v>-0.0049999999844851928</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999884477759</v>
+        <v>-0.019999999947565072</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999882838182</v>
+        <v>-0.019999999946863412</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0013448334217738278</v>
+        <v>-0.0024999999859822708</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999825570107</v>
+        <v>-0.0024999999853037025</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.041974601526687749</v>
+        <v>-0.0019999999832762683</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999600742768</v>
+        <v>-0.0069999999694703163</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.014851739008483911</v>
+        <v>-0.030008428891024952</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999576744187</v>
+        <v>-0.0069999999673786562</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999412130336</v>
+        <v>-0.0099999999601010359</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999732582836</v>
+        <v>-0.003999999974221069</v>
       </c>
     </row>
   </sheetData>
